--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elise/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6311F-C894-B740-9BF7-6687A1BB0492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8207D5-5AB7-4410-87D5-2963E94A9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33800" yWindow="-3240" windowWidth="29500" windowHeight="17420" xr2:uid="{DEE8BA3C-D095-E44C-A721-519E2B0A5DE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DEE8BA3C-D095-E44C-A721-519E2B0A5DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Returns" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -419,16 +419,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1DCADE-E714-5E43-94EC-B2CE5F5C3FB3}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>39083</v>
       </c>
@@ -459,7 +459,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>39114</v>
       </c>
@@ -476,7 +476,7 @@
         <v>449.20001200000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>39142</v>
       </c>
@@ -493,7 +493,7 @@
         <v>468.39999399999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>39173</v>
       </c>
@@ -510,7 +510,7 @@
         <v>468.39999399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>39203</v>
       </c>
@@ -527,7 +527,7 @@
         <v>471.85000600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>39234</v>
       </c>
@@ -544,7 +544,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>39264</v>
       </c>
@@ -561,7 +561,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>39295</v>
       </c>
@@ -578,7 +578,7 @@
         <v>497.35000600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>39326</v>
       </c>
@@ -595,7 +595,7 @@
         <v>544.59997599999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>39356</v>
       </c>
@@ -612,7 +612,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>39387</v>
       </c>
@@ -629,7 +629,7 @@
         <v>577.59997599999997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>39417</v>
       </c>
@@ -646,7 +646,7 @@
         <v>609.09997599999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>39448</v>
       </c>
@@ -663,7 +663,7 @@
         <v>607.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>39479</v>
       </c>
@@ -680,7 +680,7 @@
         <v>678.29998799999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>39508</v>
       </c>
@@ -697,7 +697,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>39539</v>
       </c>
@@ -714,7 +714,7 @@
         <v>724.54998799999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>39569</v>
       </c>
@@ -731,7 +731,7 @@
         <v>787.09997599999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>39600</v>
       </c>
@@ -748,7 +748,7 @@
         <v>787.09997599999997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>39630</v>
       </c>
@@ -765,7 +765,7 @@
         <v>761.25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>39661</v>
       </c>
@@ -782,7 +782,7 @@
         <v>708.75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>39692</v>
       </c>
@@ -799,7 +799,7 @@
         <v>624.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>39722</v>
       </c>
@@ -816,7 +816,7 @@
         <v>450.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>39753</v>
       </c>
@@ -833,7 +833,7 @@
         <v>382.39999399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>39783</v>
       </c>
@@ -850,7 +850,7 @@
         <v>345.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>39814</v>
       </c>
@@ -867,7 +867,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>39845</v>
       </c>
@@ -884,7 +884,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>39873</v>
       </c>
@@ -901,7 +901,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>39904</v>
       </c>
@@ -918,7 +918,7 @@
         <v>365.75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>39934</v>
       </c>
@@ -935,7 +935,7 @@
         <v>443.14999399999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>39965</v>
       </c>
@@ -952,7 +952,7 @@
         <v>449.89999399999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>39995</v>
       </c>
@@ -969,7 +969,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>40026</v>
       </c>
@@ -986,7 +986,7 @@
         <v>451.89999399999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>40057</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>40087</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>495.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>40118</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>495.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>40148</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>40179</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>486.39999399999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>40210</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>518.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>40238</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40269</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>548.25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40299</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>489.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40330</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40391</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>40422</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>40452</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>40483</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>40513</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40544</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>40575</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>40603</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>40634</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>40664</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>40695</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>665.90002400000003</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>40725</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>686.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>40756</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>675.59997599999997</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>40787</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>40817</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>40848</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>40878</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>40909</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>40940</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>40969</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>41000</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>41030</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>597.29998799999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>41061</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>41091</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>41122</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>676.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>41153</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>664.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>41183</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>41214</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>648.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>41244</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>648.25</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>41275</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>675.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>41306</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>41334</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>655.25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>41365</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>41395</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>614.70001200000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>41426</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>609.95001200000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>41456</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>639.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>41487</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>41518</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>41548</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>621.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>41579</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>624.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>624.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>41640</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>620.79998799999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>41671</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>41699</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>41730</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>653.59997599999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>41760</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>649.09997599999997</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>41791</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>649.09997599999997</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>41821</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>621.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>41852</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>41883</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>573.79998799999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>41913</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>540.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>41944</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>41974</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>419.25</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>42005</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>42036</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>42064</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>42095</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>445.10000600000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>42125</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>438.75</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>42156</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>42186</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>377.89999399999999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>42217</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>381.29998799999998</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>42248</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>358.95001200000002</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>42278</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>363.54998799999998</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>42309</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>363.54998799999998</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>42339</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>312.29998799999998</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>42370</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>301.25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>42401</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>304.39999399999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>42430</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>322.70001200000002</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>42461</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>360.39999399999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>42491</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>360.39999399999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>42522</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>374.14999399999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>42552</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>339.14999399999999</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>42583</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>347.95001200000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>42614</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>363.95001200000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>42644</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>361.60000600000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>42675</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>376.95001200000002</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>42705</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>397.75</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>42736</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>397.75</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>42767</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>401.75</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>42795</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>388.54998799999998</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>42826</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>381.70001200000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>42856</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>377.29998799999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>42887</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>372.20001200000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>42917</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>388.04998799999998</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>42948</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>385.14999399999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>42979</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>399.10000600000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>43009</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>399.10000600000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>43040</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>423.79998799999998</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>43070</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>441.95001200000002</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>43101</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>456.45001200000002</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>43132</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>443.54998799999998</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>43160</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>452.20001200000002</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>43191</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>452.20001200000002</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>43221</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>481.20001200000002</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>43252</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>487.10000600000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>43282</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>487.10000600000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>43313</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>468.70001200000002</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>43344</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>486.20001200000002</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>43374</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>455.35000600000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>43405</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>406.10000600000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>43435</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>375.25</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>43466</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>407.79998799999998</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>43497</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>425.64999399999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>43525</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>433.79998799999998</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>43556</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>446.45001200000002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>43586</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>43617</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>423.85000600000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>43647</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>421.45001200000002</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>43678</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>396.60000600000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>43709</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>396.60000600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>43739</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>43770</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>410.54998799999998</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>43800</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>410.54998799999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>43831</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>425.540009</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>43862</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>396.35000600000001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>43891</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>396.35000600000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>43922</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>252.19000199999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>43952</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>281.26998900000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>43983</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>314.290009</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44013</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>336.85000600000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44044</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>354.17001299999998</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44075</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>347.85998499999999</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44105</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>360.01998900000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44136</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>360.01998900000001</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44166</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>397.790009</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44197</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>430.82000699999998</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44228</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>470.88000499999998</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44256</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>490.5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44287</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>488.79901100000001</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44317</v>
       </c>
@@ -3383,9 +3383,9 @@
         <v>520.39001499999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B175" s="1">
         <v>4297.5</v>
@@ -3400,7 +3400,7 @@
         <v>536.40997300000004</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44378</v>
       </c>
@@ -3433,12 +3433,12 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>200701</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4.9532738317757063E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200702</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>4.2742612393340762E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>200703</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200704</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>7.3655252864925913E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200705</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>3.316730698526249E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>200706</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>200707</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>2.0205140512820519E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200708</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>9.5003457183028495E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200709</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>9.8053665723995653E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>200710</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-3.4113752508361239E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200711</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>5.4536013346371703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200712</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>-2.6267871663813169E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>200801</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0.11654319012345682</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>200802</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>-1.6659277900503144E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>200803</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>8.6281841079460353E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>200804</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>8.6329430730733847E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>200805</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>200806</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>-3.2842049025802456E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>200807</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>-6.8965517241379337E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>200808</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>-0.11851851851851847</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200809</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>-0.27931172468987597</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>200810</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>-0.15069407218212105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>200811</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>-9.6495801723260444E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>200812</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>-2.2141806078147641E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>200901</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>200902</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>200903</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>8.2581007857078337E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>200904</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0.21161994258373196</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>200905</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1.5231863006637036E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>200906</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1.355858208791183E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>200907</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>-8.991241228070157E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>200908</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>2.4562970009687657E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>200909</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>7.0194384449244085E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>200910</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>200911</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>5.953582240161448E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>200912</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>-7.3523820952380969E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201001</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>6.5481098669585958E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201002</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>2.2672455378678347E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201003</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>3.4433962264150964E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201004</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>-0.10715914272685823</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>201005</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>9.1930541368743235E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201006</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>5.9716599190283493E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201007</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>201008</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>4.4890162368672382E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201009</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>3.1078610603290757E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201010</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>2.1276595744680771E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201011</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0.10069444444444442</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201012</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>3.3911671924290232E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>201101</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>5.5682684973302754E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>201102</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5.0578034682080997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201103</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4.4016506189821225E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201104</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>201105</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>-0.12266136495388669</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>201106</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>3.0935538755889835E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>201107</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>-1.5877675163874727E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>201108</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>-0.12522199379118981</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>201109</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>9.4754653130287636E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>201110</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>1.8547140649149974E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>201111</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>-1.8209408194233667E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>201112</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>201201</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>8.6553323029366247E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>201202</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>-1.849217638691325E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>201203</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>201204</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>-0.1343478434782609</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>201205</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>7.8687629238660683E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>201206</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>201207</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0.12375415282392033</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>201208</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>-1.7738359201773801E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>201209</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>-3.9879608728367155E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>201210</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1.6457680250783646E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>201211</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>-3.8550501156520145E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>201212</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>4.2036251446201378E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>201301</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>-4.0710584752035484E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>201302</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>1.1188271604938294E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>201303</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>-4.9217855780236519E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>201304</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>-1.3322613162118802E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>201305</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>-7.7273465223228754E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>201306</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>4.8446573356244027E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>201307</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>2.5019546520719249E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>201308</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>201309</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>-5.1868802440884876E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>201310</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>4.8270313757039496E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>201311</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>201312</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>-5.9247590072057932E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>201401</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4.7036102713326811E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>201402</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>-1.5384615384614886E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201403</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>7.0877904468411579E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>201404</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>-6.8849451732537759E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>201405</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>201406</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>-4.2520377477259341E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>201407</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>-1.6894609814963824E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>201408</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>-6.0883816693944381E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>201409</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>-5.8034138543760272E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>201410</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>-0.10083256244218319</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>201411</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>-0.13734567901234573</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>201412</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>-7.5730471079308304E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>201501</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>201502</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>201503</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0.14864517677419364</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>201504</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>-1.4266470263763598E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>201505</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>5.12820512820511E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>201506</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>-0.14308391383219954</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>201507</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>8.997073442663206E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>201508</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>-5.861520247412122E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>201509</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>1.2815088024011434E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>201510</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>201511</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>-0.14097098526104201</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>201512</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>-3.5382607827701862E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>201601</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>1.0456411618257277E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>201602</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>6.0118325757917201E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>201603</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0.11682671396987732</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>201604</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>201605</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>3.8152053909301653E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>201606</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>-9.3545371004335798E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>201607</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>2.5947274526562536E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>201608</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>4.5983616750097989E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>201609</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>-6.4569471699866821E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>201610</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>4.245023712748508E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>201611</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>5.5179698468878158E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>201612</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>201701</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1.0056568196103122E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>201702</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>-3.2856283758556315E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>201703</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>-1.7629587470222696E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>201704</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>-1.1527440035815406E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>201705</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>-1.3517031969796811E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>201706</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>4.2584566063904372E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>201707</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>-7.4732485238473423E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>201708</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>3.6219686400929874E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>201709</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>201710</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>6.1889204782422214E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>201711</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>4.2826862939882915E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>201712</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>3.280914041473082E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>201801</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>-2.8261635799891383E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>201802</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1.9501801902878313E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>201803</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>201804</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>6.4130913822266766E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>201805</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1.2261001356749679E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>201806</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>201807</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>-3.7774571491177467E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>201808</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>3.7337315024434048E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>201809</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>-6.3451265402272305E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>201810</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>-0.10815855792478013</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>201811</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>-7.5966524363951904E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>201812</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>8.6742139906728744E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>201901</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>4.3771472597493144E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>201902</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1.9147172829514947E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>201903</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>2.9160959773931738E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>201904</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>-8.7243836830717791E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>201905</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>4.0122714110429447E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>201906</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>-5.6623663230525034E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>201907</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>-5.8963116128704751E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>201908</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>201909</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>2.6222879078826811E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>201910</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>8.7223292383291628E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>201911</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>201912</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>3.6512048320897827E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>202001</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>-6.8595202290367974E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>202002</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>202003</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>-0.36371893987053461</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>202004</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>0.11530983294095853</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>202005</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0.11739617197482088</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>202006</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>7.1780827751352527E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>202007</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>5.1417564766200297E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>202008</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>-1.7816381309504026E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>202009</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>3.4956604738541674E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>202010</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>202011</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0.10491089704466372</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>202012</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>8.3033754626049339E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>202101</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>9.2985463416512149E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>202102</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>4.1666655605816283E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>202103</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>-3.4678674821609912E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>202104</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>6.4629844351301147E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>202105</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>3.0784522258752611E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B175" s="4">
         <f>Prices!B176/Prices!B175-1</f>
         <v>1.2760907504363095E-2</v>
@@ -7103,7 +7103,7 @@
         <v>-1.3534328900331571E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B176" s="4">
         <f>Prices!B177/Prices!B176-1</f>
         <v>-1</v>

--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uoftMMF2025 Risk Management Lab\roboadvisor-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elise/Downloads/roboadvisor-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8207D5-5AB7-4410-87D5-2963E94A9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F30728F-B3D0-114D-B9A2-D7BD8A5971B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DEE8BA3C-D095-E44C-A721-519E2B0A5DE5}"/>
+    <workbookView xWindow="1540" yWindow="1000" windowWidth="28800" windowHeight="17500" xr2:uid="{DEE8BA3C-D095-E44C-A721-519E2B0A5DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
     <sheet name="Returns" sheetId="3" r:id="rId2"/>
+    <sheet name="weights" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>S&amp;P 500</t>
   </si>
@@ -48,12 +49,87 @@
   <si>
     <t>Bloomberg Barclays US Aggregate</t>
   </si>
+  <si>
+    <t>XNTK</t>
+  </si>
+  <si>
+    <t>KCE</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>SHY</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t>MHWIX</t>
+  </si>
+  <si>
+    <t>IYR</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>XIT.TO</t>
+  </si>
+  <si>
+    <t>XBB.TO</t>
+  </si>
+  <si>
+    <t>XRB.TO</t>
+  </si>
+  <si>
+    <t>XRE.TO</t>
+  </si>
+  <si>
+    <t>XLB</t>
+  </si>
+  <si>
+    <t>SOXX</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>REITs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,16 +150,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,17 +181,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1DCADE-E714-5E43-94EC-B2CE5F5C3FB3}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -442,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>39083</v>
       </c>
@@ -459,7 +569,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>39114</v>
       </c>
@@ -476,7 +586,7 @@
         <v>449.20001200000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>39142</v>
       </c>
@@ -493,7 +603,7 @@
         <v>468.39999399999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>39173</v>
       </c>
@@ -510,7 +620,7 @@
         <v>468.39999399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>39203</v>
       </c>
@@ -527,7 +637,7 @@
         <v>471.85000600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>39234</v>
       </c>
@@ -544,7 +654,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>39264</v>
       </c>
@@ -561,7 +671,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>39295</v>
       </c>
@@ -578,7 +688,7 @@
         <v>497.35000600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>39326</v>
       </c>
@@ -595,7 +705,7 @@
         <v>544.59997599999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>39356</v>
       </c>
@@ -612,7 +722,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>39387</v>
       </c>
@@ -629,7 +739,7 @@
         <v>577.59997599999997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>39417</v>
       </c>
@@ -646,7 +756,7 @@
         <v>609.09997599999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>39448</v>
       </c>
@@ -663,7 +773,7 @@
         <v>607.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>39479</v>
       </c>
@@ -680,7 +790,7 @@
         <v>678.29998799999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>39508</v>
       </c>
@@ -697,7 +807,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>39539</v>
       </c>
@@ -714,7 +824,7 @@
         <v>724.54998799999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>39569</v>
       </c>
@@ -731,7 +841,7 @@
         <v>787.09997599999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>39600</v>
       </c>
@@ -748,7 +858,7 @@
         <v>787.09997599999997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>39630</v>
       </c>
@@ -765,7 +875,7 @@
         <v>761.25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>39661</v>
       </c>
@@ -782,7 +892,7 @@
         <v>708.75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>39692</v>
       </c>
@@ -799,7 +909,7 @@
         <v>624.75</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>39722</v>
       </c>
@@ -816,7 +926,7 @@
         <v>450.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>39753</v>
       </c>
@@ -833,7 +943,7 @@
         <v>382.39999399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>39783</v>
       </c>
@@ -850,7 +960,7 @@
         <v>345.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>39814</v>
       </c>
@@ -867,7 +977,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>39845</v>
       </c>
@@ -884,7 +994,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>39873</v>
       </c>
@@ -901,7 +1011,7 @@
         <v>337.85000600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>39904</v>
       </c>
@@ -918,7 +1028,7 @@
         <v>365.75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39934</v>
       </c>
@@ -935,7 +1045,7 @@
         <v>443.14999399999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39965</v>
       </c>
@@ -952,7 +1062,7 @@
         <v>449.89999399999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39995</v>
       </c>
@@ -969,7 +1079,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>40026</v>
       </c>
@@ -986,7 +1096,7 @@
         <v>451.89999399999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>40057</v>
       </c>
@@ -1003,7 +1113,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>40087</v>
       </c>
@@ -1020,7 +1130,7 @@
         <v>495.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>40118</v>
       </c>
@@ -1037,7 +1147,7 @@
         <v>495.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>40148</v>
       </c>
@@ -1054,7 +1164,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>40179</v>
       </c>
@@ -1071,7 +1181,7 @@
         <v>486.39999399999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>40210</v>
       </c>
@@ -1088,7 +1198,7 @@
         <v>518.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40238</v>
       </c>
@@ -1105,7 +1215,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40269</v>
       </c>
@@ -1122,7 +1232,7 @@
         <v>548.25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40299</v>
       </c>
@@ -1139,7 +1249,7 @@
         <v>489.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40330</v>
       </c>
@@ -1156,7 +1266,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
@@ -1173,7 +1283,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40391</v>
       </c>
@@ -1190,7 +1300,7 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40422</v>
       </c>
@@ -1207,7 +1317,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40452</v>
       </c>
@@ -1224,7 +1334,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40483</v>
       </c>
@@ -1241,7 +1351,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40513</v>
       </c>
@@ -1258,7 +1368,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40544</v>
       </c>
@@ -1275,7 +1385,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>40575</v>
       </c>
@@ -1292,7 +1402,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>40603</v>
       </c>
@@ -1309,7 +1419,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>40634</v>
       </c>
@@ -1326,7 +1436,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>40664</v>
       </c>
@@ -1343,7 +1453,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>40695</v>
       </c>
@@ -1360,7 +1470,7 @@
         <v>665.90002400000003</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>40725</v>
       </c>
@@ -1377,7 +1487,7 @@
         <v>686.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>40756</v>
       </c>
@@ -1394,7 +1504,7 @@
         <v>675.59997599999997</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>40787</v>
       </c>
@@ -1411,7 +1521,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>40817</v>
       </c>
@@ -1428,7 +1538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>40848</v>
       </c>
@@ -1445,7 +1555,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>40878</v>
       </c>
@@ -1462,7 +1572,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>40909</v>
       </c>
@@ -1479,7 +1589,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>40940</v>
       </c>
@@ -1496,7 +1606,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>40969</v>
       </c>
@@ -1513,7 +1623,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>41000</v>
       </c>
@@ -1530,7 +1640,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>41030</v>
       </c>
@@ -1547,7 +1657,7 @@
         <v>597.29998799999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>41061</v>
       </c>
@@ -1564,7 +1674,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>41091</v>
       </c>
@@ -1581,7 +1691,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>41122</v>
       </c>
@@ -1598,7 +1708,7 @@
         <v>676.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>41153</v>
       </c>
@@ -1615,7 +1725,7 @@
         <v>664.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>41183</v>
       </c>
@@ -1632,7 +1742,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>41214</v>
       </c>
@@ -1649,7 +1759,7 @@
         <v>648.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>41244</v>
       </c>
@@ -1666,7 +1776,7 @@
         <v>648.25</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>41275</v>
       </c>
@@ -1683,7 +1793,7 @@
         <v>675.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>41306</v>
       </c>
@@ -1700,7 +1810,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>41334</v>
       </c>
@@ -1717,7 +1827,7 @@
         <v>655.25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>41365</v>
       </c>
@@ -1734,7 +1844,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>41395</v>
       </c>
@@ -1751,7 +1861,7 @@
         <v>614.70001200000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>41426</v>
       </c>
@@ -1768,7 +1878,7 @@
         <v>609.95001200000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>41456</v>
       </c>
@@ -1785,7 +1895,7 @@
         <v>639.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>41487</v>
       </c>
@@ -1802,7 +1912,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>41518</v>
       </c>
@@ -1819,7 +1929,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>41548</v>
       </c>
@@ -1836,7 +1946,7 @@
         <v>621.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>41579</v>
       </c>
@@ -1853,7 +1963,7 @@
         <v>624.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>41609</v>
       </c>
@@ -1870,7 +1980,7 @@
         <v>624.5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>41640</v>
       </c>
@@ -1887,7 +1997,7 @@
         <v>620.79998799999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>41671</v>
       </c>
@@ -1904,7 +2014,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>41699</v>
       </c>
@@ -1921,7 +2031,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>41730</v>
       </c>
@@ -1938,7 +2048,7 @@
         <v>653.59997599999997</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>41760</v>
       </c>
@@ -1955,7 +2065,7 @@
         <v>649.09997599999997</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>41791</v>
       </c>
@@ -1972,7 +2082,7 @@
         <v>649.09997599999997</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>41821</v>
       </c>
@@ -1989,7 +2099,7 @@
         <v>621.5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>41852</v>
       </c>
@@ -2006,7 +2116,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>41883</v>
       </c>
@@ -2023,7 +2133,7 @@
         <v>573.79998799999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>41913</v>
       </c>
@@ -2040,7 +2150,7 @@
         <v>540.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>41944</v>
       </c>
@@ -2057,7 +2167,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>41974</v>
       </c>
@@ -2074,7 +2184,7 @@
         <v>419.25</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>42005</v>
       </c>
@@ -2091,7 +2201,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>42036</v>
       </c>
@@ -2108,7 +2218,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>42064</v>
       </c>
@@ -2125,7 +2235,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>42095</v>
       </c>
@@ -2142,7 +2252,7 @@
         <v>445.10000600000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>42125</v>
       </c>
@@ -2159,7 +2269,7 @@
         <v>438.75</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>42156</v>
       </c>
@@ -2176,7 +2286,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>42186</v>
       </c>
@@ -2193,7 +2303,7 @@
         <v>377.89999399999999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>42217</v>
       </c>
@@ -2210,7 +2320,7 @@
         <v>381.29998799999998</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>42248</v>
       </c>
@@ -2227,7 +2337,7 @@
         <v>358.95001200000002</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>42278</v>
       </c>
@@ -2244,7 +2354,7 @@
         <v>363.54998799999998</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>42309</v>
       </c>
@@ -2261,7 +2371,7 @@
         <v>363.54998799999998</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>42339</v>
       </c>
@@ -2278,7 +2388,7 @@
         <v>312.29998799999998</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>42370</v>
       </c>
@@ -2295,7 +2405,7 @@
         <v>301.25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>42401</v>
       </c>
@@ -2312,7 +2422,7 @@
         <v>304.39999399999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>42430</v>
       </c>
@@ -2329,7 +2439,7 @@
         <v>322.70001200000002</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>42461</v>
       </c>
@@ -2346,7 +2456,7 @@
         <v>360.39999399999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>42491</v>
       </c>
@@ -2363,7 +2473,7 @@
         <v>360.39999399999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>42522</v>
       </c>
@@ -2380,7 +2490,7 @@
         <v>374.14999399999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>42552</v>
       </c>
@@ -2397,7 +2507,7 @@
         <v>339.14999399999999</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>42583</v>
       </c>
@@ -2414,7 +2524,7 @@
         <v>347.95001200000002</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>42614</v>
       </c>
@@ -2431,7 +2541,7 @@
         <v>363.95001200000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>42644</v>
       </c>
@@ -2448,7 +2558,7 @@
         <v>361.60000600000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>42675</v>
       </c>
@@ -2465,7 +2575,7 @@
         <v>376.95001200000002</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42705</v>
       </c>
@@ -2482,7 +2592,7 @@
         <v>397.75</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42736</v>
       </c>
@@ -2499,7 +2609,7 @@
         <v>397.75</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>42767</v>
       </c>
@@ -2516,7 +2626,7 @@
         <v>401.75</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42795</v>
       </c>
@@ -2533,7 +2643,7 @@
         <v>388.54998799999998</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>42826</v>
       </c>
@@ -2550,7 +2660,7 @@
         <v>381.70001200000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42856</v>
       </c>
@@ -2567,7 +2677,7 @@
         <v>377.29998799999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>42887</v>
       </c>
@@ -2584,7 +2694,7 @@
         <v>372.20001200000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42917</v>
       </c>
@@ -2601,7 +2711,7 @@
         <v>388.04998799999998</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42948</v>
       </c>
@@ -2618,7 +2728,7 @@
         <v>385.14999399999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>42979</v>
       </c>
@@ -2635,7 +2745,7 @@
         <v>399.10000600000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43009</v>
       </c>
@@ -2652,7 +2762,7 @@
         <v>399.10000600000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43040</v>
       </c>
@@ -2669,7 +2779,7 @@
         <v>423.79998799999998</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43070</v>
       </c>
@@ -2686,7 +2796,7 @@
         <v>441.95001200000002</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43101</v>
       </c>
@@ -2703,7 +2813,7 @@
         <v>456.45001200000002</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43132</v>
       </c>
@@ -2720,7 +2830,7 @@
         <v>443.54998799999998</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43160</v>
       </c>
@@ -2737,7 +2847,7 @@
         <v>452.20001200000002</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43191</v>
       </c>
@@ -2754,7 +2864,7 @@
         <v>452.20001200000002</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43221</v>
       </c>
@@ -2771,7 +2881,7 @@
         <v>481.20001200000002</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43252</v>
       </c>
@@ -2788,7 +2898,7 @@
         <v>487.10000600000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43282</v>
       </c>
@@ -2805,7 +2915,7 @@
         <v>487.10000600000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43313</v>
       </c>
@@ -2822,7 +2932,7 @@
         <v>468.70001200000002</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43344</v>
       </c>
@@ -2839,7 +2949,7 @@
         <v>486.20001200000002</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43374</v>
       </c>
@@ -2856,7 +2966,7 @@
         <v>455.35000600000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43405</v>
       </c>
@@ -2873,7 +2983,7 @@
         <v>406.10000600000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43435</v>
       </c>
@@ -2890,7 +3000,7 @@
         <v>375.25</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43466</v>
       </c>
@@ -2907,7 +3017,7 @@
         <v>407.79998799999998</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43497</v>
       </c>
@@ -2924,7 +3034,7 @@
         <v>425.64999399999999</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43525</v>
       </c>
@@ -2941,7 +3051,7 @@
         <v>433.79998799999998</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43556</v>
       </c>
@@ -2958,7 +3068,7 @@
         <v>446.45001200000002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43586</v>
       </c>
@@ -2975,7 +3085,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43617</v>
       </c>
@@ -2992,7 +3102,7 @@
         <v>423.85000600000001</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43647</v>
       </c>
@@ -3009,7 +3119,7 @@
         <v>421.45001200000002</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43678</v>
       </c>
@@ -3026,7 +3136,7 @@
         <v>396.60000600000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43709</v>
       </c>
@@ -3043,7 +3153,7 @@
         <v>396.60000600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43739</v>
       </c>
@@ -3060,7 +3170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43770</v>
       </c>
@@ -3077,7 +3187,7 @@
         <v>410.54998799999998</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43800</v>
       </c>
@@ -3094,7 +3204,7 @@
         <v>410.54998799999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43831</v>
       </c>
@@ -3111,7 +3221,7 @@
         <v>425.540009</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43862</v>
       </c>
@@ -3128,7 +3238,7 @@
         <v>396.35000600000001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43891</v>
       </c>
@@ -3145,7 +3255,7 @@
         <v>396.35000600000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43922</v>
       </c>
@@ -3162,7 +3272,7 @@
         <v>252.19000199999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43952</v>
       </c>
@@ -3179,7 +3289,7 @@
         <v>281.26998900000001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43983</v>
       </c>
@@ -3196,7 +3306,7 @@
         <v>314.290009</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44013</v>
       </c>
@@ -3213,7 +3323,7 @@
         <v>336.85000600000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44044</v>
       </c>
@@ -3230,7 +3340,7 @@
         <v>354.17001299999998</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44075</v>
       </c>
@@ -3247,7 +3357,7 @@
         <v>347.85998499999999</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44105</v>
       </c>
@@ -3264,7 +3374,7 @@
         <v>360.01998900000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44136</v>
       </c>
@@ -3281,7 +3391,7 @@
         <v>360.01998900000001</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44166</v>
       </c>
@@ -3298,7 +3408,7 @@
         <v>397.790009</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44197</v>
       </c>
@@ -3315,7 +3425,7 @@
         <v>430.82000699999998</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44228</v>
       </c>
@@ -3332,7 +3442,7 @@
         <v>470.88000499999998</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44256</v>
       </c>
@@ -3349,7 +3459,7 @@
         <v>490.5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44287</v>
       </c>
@@ -3366,7 +3476,7 @@
         <v>488.79901100000001</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44317</v>
       </c>
@@ -3383,7 +3493,7 @@
         <v>520.39001499999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44347</v>
       </c>
@@ -3400,26 +3510,9 @@
         <v>536.40997300000004</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B176" s="1">
-        <v>4352.34</v>
-      </c>
-      <c r="C176" s="1">
-        <v>2352.59</v>
-      </c>
-      <c r="D176" s="1">
-        <v>1374.119995</v>
-      </c>
-      <c r="E176" s="1">
-        <v>529.15002400000003</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B176">
-    <sortCondition ref="A9:A176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B175">
+    <sortCondition ref="A9:A175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,12 +3526,12 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200701</v>
       </c>
@@ -3473,7 +3566,7 @@
         <v>4.9532738317757063E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200702</v>
       </c>
@@ -3494,7 +3587,7 @@
         <v>4.2742612393340762E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200703</v>
       </c>
@@ -3515,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200704</v>
       </c>
@@ -3536,7 +3629,7 @@
         <v>7.3655252864925913E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200705</v>
       </c>
@@ -3557,7 +3650,7 @@
         <v>3.316730698526249E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>200706</v>
       </c>
@@ -3578,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>200707</v>
       </c>
@@ -3599,7 +3692,7 @@
         <v>2.0205140512820519E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>200708</v>
       </c>
@@ -3620,7 +3713,7 @@
         <v>9.5003457183028495E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>200709</v>
       </c>
@@ -3641,7 +3734,7 @@
         <v>9.8053665723995653E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200710</v>
       </c>
@@ -3662,7 +3755,7 @@
         <v>-3.4113752508361239E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200711</v>
       </c>
@@ -3683,7 +3776,7 @@
         <v>5.4536013346371703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200712</v>
       </c>
@@ -3704,7 +3797,7 @@
         <v>-2.6267871663813169E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>200801</v>
       </c>
@@ -3725,7 +3818,7 @@
         <v>0.11654319012345682</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>200802</v>
       </c>
@@ -3746,7 +3839,7 @@
         <v>-1.6659277900503144E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>200803</v>
       </c>
@@ -3767,7 +3860,7 @@
         <v>8.6281841079460353E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>200804</v>
       </c>
@@ -3788,7 +3881,7 @@
         <v>8.6329430730733847E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200805</v>
       </c>
@@ -3809,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>200806</v>
       </c>
@@ -3830,7 +3923,7 @@
         <v>-3.2842049025802456E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>200807</v>
       </c>
@@ -3851,7 +3944,7 @@
         <v>-6.8965517241379337E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>200808</v>
       </c>
@@ -3872,7 +3965,7 @@
         <v>-0.11851851851851847</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>200809</v>
       </c>
@@ -3893,7 +3986,7 @@
         <v>-0.27931172468987597</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>200810</v>
       </c>
@@ -3914,7 +4007,7 @@
         <v>-0.15069407218212105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>200811</v>
       </c>
@@ -3935,7 +4028,7 @@
         <v>-9.6495801723260444E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>200812</v>
       </c>
@@ -3956,7 +4049,7 @@
         <v>-2.2141806078147641E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>200901</v>
       </c>
@@ -3977,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200902</v>
       </c>
@@ -3998,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>200903</v>
       </c>
@@ -4019,7 +4112,7 @@
         <v>8.2581007857078337E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>200904</v>
       </c>
@@ -4040,7 +4133,7 @@
         <v>0.21161994258373196</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>200905</v>
       </c>
@@ -4061,7 +4154,7 @@
         <v>1.5231863006637036E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>200906</v>
       </c>
@@ -4082,7 +4175,7 @@
         <v>1.355858208791183E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>200907</v>
       </c>
@@ -4103,7 +4196,7 @@
         <v>-8.991241228070157E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>200908</v>
       </c>
@@ -4124,7 +4217,7 @@
         <v>2.4562970009687657E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>200909</v>
       </c>
@@ -4145,7 +4238,7 @@
         <v>7.0194384449244085E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>200910</v>
       </c>
@@ -4166,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>200911</v>
       </c>
@@ -4187,7 +4280,7 @@
         <v>5.953582240161448E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>200912</v>
       </c>
@@ -4208,7 +4301,7 @@
         <v>-7.3523820952380969E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>201001</v>
       </c>
@@ -4229,7 +4322,7 @@
         <v>6.5481098669585958E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>201002</v>
       </c>
@@ -4250,7 +4343,7 @@
         <v>2.2672455378678347E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>201003</v>
       </c>
@@ -4271,7 +4364,7 @@
         <v>3.4433962264150964E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>201004</v>
       </c>
@@ -4292,7 +4385,7 @@
         <v>-0.10715914272685823</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>201005</v>
       </c>
@@ -4313,7 +4406,7 @@
         <v>9.1930541368743235E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>201006</v>
       </c>
@@ -4334,7 +4427,7 @@
         <v>5.9716599190283493E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>201007</v>
       </c>
@@ -4355,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>201008</v>
       </c>
@@ -4376,7 +4469,7 @@
         <v>4.4890162368672382E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>201009</v>
       </c>
@@ -4397,7 +4490,7 @@
         <v>3.1078610603290757E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>201010</v>
       </c>
@@ -4418,7 +4511,7 @@
         <v>2.1276595744680771E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>201011</v>
       </c>
@@ -4439,7 +4532,7 @@
         <v>0.10069444444444442</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>201012</v>
       </c>
@@ -4460,7 +4553,7 @@
         <v>3.3911671924290232E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201101</v>
       </c>
@@ -4481,7 +4574,7 @@
         <v>5.5682684973302754E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>201102</v>
       </c>
@@ -4502,7 +4595,7 @@
         <v>5.0578034682080997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>201103</v>
       </c>
@@ -4523,7 +4616,7 @@
         <v>4.4016506189821225E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>201104</v>
       </c>
@@ -4544,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>201105</v>
       </c>
@@ -4565,7 +4658,7 @@
         <v>-0.12266136495388669</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>201106</v>
       </c>
@@ -4586,7 +4679,7 @@
         <v>3.0935538755889835E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>201107</v>
       </c>
@@ -4607,7 +4700,7 @@
         <v>-1.5877675163874727E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>201108</v>
       </c>
@@ -4628,7 +4721,7 @@
         <v>-0.12522199379118981</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>201109</v>
       </c>
@@ -4649,7 +4742,7 @@
         <v>9.4754653130287636E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>201110</v>
       </c>
@@ -4670,7 +4763,7 @@
         <v>1.8547140649149974E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>201111</v>
       </c>
@@ -4691,7 +4784,7 @@
         <v>-1.8209408194233667E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>201112</v>
       </c>
@@ -4712,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>201201</v>
       </c>
@@ -4733,7 +4826,7 @@
         <v>8.6553323029366247E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>201202</v>
       </c>
@@ -4754,7 +4847,7 @@
         <v>-1.849217638691325E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>201203</v>
       </c>
@@ -4775,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>201204</v>
       </c>
@@ -4796,7 +4889,7 @@
         <v>-0.1343478434782609</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>201205</v>
       </c>
@@ -4817,7 +4910,7 @@
         <v>7.8687629238660683E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>201206</v>
       </c>
@@ -4838,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>201207</v>
       </c>
@@ -4859,7 +4952,7 @@
         <v>0.12375415282392033</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>201208</v>
       </c>
@@ -4880,7 +4973,7 @@
         <v>-1.7738359201773801E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>201209</v>
       </c>
@@ -4901,7 +4994,7 @@
         <v>-3.9879608728367155E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>201210</v>
       </c>
@@ -4922,7 +5015,7 @@
         <v>1.6457680250783646E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>201211</v>
       </c>
@@ -4943,7 +5036,7 @@
         <v>-3.8550501156520145E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>201212</v>
       </c>
@@ -4964,7 +5057,7 @@
         <v>4.2036251446201378E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>201301</v>
       </c>
@@ -4985,7 +5078,7 @@
         <v>-4.0710584752035484E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>201302</v>
       </c>
@@ -5006,7 +5099,7 @@
         <v>1.1188271604938294E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>201303</v>
       </c>
@@ -5027,7 +5120,7 @@
         <v>-4.9217855780236519E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>201304</v>
       </c>
@@ -5048,7 +5141,7 @@
         <v>-1.3322613162118802E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>201305</v>
       </c>
@@ -5069,7 +5162,7 @@
         <v>-7.7273465223228754E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>201306</v>
       </c>
@@ -5090,7 +5183,7 @@
         <v>4.8446573356244027E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>201307</v>
       </c>
@@ -5111,7 +5204,7 @@
         <v>2.5019546520719249E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>201308</v>
       </c>
@@ -5132,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>201309</v>
       </c>
@@ -5153,7 +5246,7 @@
         <v>-5.1868802440884876E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>201310</v>
       </c>
@@ -5174,7 +5267,7 @@
         <v>4.8270313757039496E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>201311</v>
       </c>
@@ -5195,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>201312</v>
       </c>
@@ -5216,7 +5309,7 @@
         <v>-5.9247590072057932E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>201401</v>
       </c>
@@ -5237,7 +5330,7 @@
         <v>4.7036102713326811E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>201402</v>
       </c>
@@ -5258,7 +5351,7 @@
         <v>-1.5384615384614886E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>201403</v>
       </c>
@@ -5279,7 +5372,7 @@
         <v>7.0877904468411579E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>201404</v>
       </c>
@@ -5300,7 +5393,7 @@
         <v>-6.8849451732537759E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>201405</v>
       </c>
@@ -5321,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>201406</v>
       </c>
@@ -5342,7 +5435,7 @@
         <v>-4.2520377477259341E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>201407</v>
       </c>
@@ -5363,7 +5456,7 @@
         <v>-1.6894609814963824E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>201408</v>
       </c>
@@ -5384,7 +5477,7 @@
         <v>-6.0883816693944381E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>201409</v>
       </c>
@@ -5405,7 +5498,7 @@
         <v>-5.8034138543760272E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>201410</v>
       </c>
@@ -5426,7 +5519,7 @@
         <v>-0.10083256244218319</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>201411</v>
       </c>
@@ -5447,7 +5540,7 @@
         <v>-0.13734567901234573</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>201412</v>
       </c>
@@ -5468,7 +5561,7 @@
         <v>-7.5730471079308304E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>201501</v>
       </c>
@@ -5489,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>201502</v>
       </c>
@@ -5510,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>201503</v>
       </c>
@@ -5531,7 +5624,7 @@
         <v>0.14864517677419364</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>201504</v>
       </c>
@@ -5552,7 +5645,7 @@
         <v>-1.4266470263763598E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>201505</v>
       </c>
@@ -5573,7 +5666,7 @@
         <v>5.12820512820511E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>201506</v>
       </c>
@@ -5594,7 +5687,7 @@
         <v>-0.14308391383219954</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>201507</v>
       </c>
@@ -5615,7 +5708,7 @@
         <v>8.997073442663206E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>201508</v>
       </c>
@@ -5636,7 +5729,7 @@
         <v>-5.861520247412122E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>201509</v>
       </c>
@@ -5657,7 +5750,7 @@
         <v>1.2815088024011434E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>201510</v>
       </c>
@@ -5678,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>201511</v>
       </c>
@@ -5699,7 +5792,7 @@
         <v>-0.14097098526104201</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>201512</v>
       </c>
@@ -5720,7 +5813,7 @@
         <v>-3.5382607827701862E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>201601</v>
       </c>
@@ -5741,7 +5834,7 @@
         <v>1.0456411618257277E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>201602</v>
       </c>
@@ -5762,7 +5855,7 @@
         <v>6.0118325757917201E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>201603</v>
       </c>
@@ -5783,7 +5876,7 @@
         <v>0.11682671396987732</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>201604</v>
       </c>
@@ -5804,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>201605</v>
       </c>
@@ -5825,7 +5918,7 @@
         <v>3.8152053909301653E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>201606</v>
       </c>
@@ -5846,7 +5939,7 @@
         <v>-9.3545371004335798E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>201607</v>
       </c>
@@ -5867,7 +5960,7 @@
         <v>2.5947274526562536E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>201608</v>
       </c>
@@ -5888,7 +5981,7 @@
         <v>4.5983616750097989E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>201609</v>
       </c>
@@ -5909,7 +6002,7 @@
         <v>-6.4569471699866821E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>201610</v>
       </c>
@@ -5930,7 +6023,7 @@
         <v>4.245023712748508E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>201611</v>
       </c>
@@ -5951,7 +6044,7 @@
         <v>5.5179698468878158E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>201612</v>
       </c>
@@ -5972,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>201701</v>
       </c>
@@ -5993,7 +6086,7 @@
         <v>1.0056568196103122E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>201702</v>
       </c>
@@ -6014,7 +6107,7 @@
         <v>-3.2856283758556315E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>201703</v>
       </c>
@@ -6035,7 +6128,7 @@
         <v>-1.7629587470222696E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>201704</v>
       </c>
@@ -6056,7 +6149,7 @@
         <v>-1.1527440035815406E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>201705</v>
       </c>
@@ -6077,7 +6170,7 @@
         <v>-1.3517031969796811E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>201706</v>
       </c>
@@ -6098,7 +6191,7 @@
         <v>4.2584566063904372E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>201707</v>
       </c>
@@ -6119,7 +6212,7 @@
         <v>-7.4732485238473423E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>201708</v>
       </c>
@@ -6140,7 +6233,7 @@
         <v>3.6219686400929874E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>201709</v>
       </c>
@@ -6161,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>201710</v>
       </c>
@@ -6182,7 +6275,7 @@
         <v>6.1889204782422214E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>201711</v>
       </c>
@@ -6203,7 +6296,7 @@
         <v>4.2826862939882915E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>201712</v>
       </c>
@@ -6224,7 +6317,7 @@
         <v>3.280914041473082E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>201801</v>
       </c>
@@ -6245,7 +6338,7 @@
         <v>-2.8261635799891383E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>201802</v>
       </c>
@@ -6266,7 +6359,7 @@
         <v>1.9501801902878313E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>201803</v>
       </c>
@@ -6287,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>201804</v>
       </c>
@@ -6308,7 +6401,7 @@
         <v>6.4130913822266766E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>201805</v>
       </c>
@@ -6329,7 +6422,7 @@
         <v>1.2261001356749679E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201806</v>
       </c>
@@ -6350,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>201807</v>
       </c>
@@ -6371,7 +6464,7 @@
         <v>-3.7774571491177467E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>201808</v>
       </c>
@@ -6392,7 +6485,7 @@
         <v>3.7337315024434048E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>201809</v>
       </c>
@@ -6413,7 +6506,7 @@
         <v>-6.3451265402272305E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>201810</v>
       </c>
@@ -6434,7 +6527,7 @@
         <v>-0.10815855792478013</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>201811</v>
       </c>
@@ -6455,7 +6548,7 @@
         <v>-7.5966524363951904E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>201812</v>
       </c>
@@ -6476,7 +6569,7 @@
         <v>8.6742139906728744E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>201901</v>
       </c>
@@ -6497,7 +6590,7 @@
         <v>4.3771472597493144E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>201902</v>
       </c>
@@ -6518,7 +6611,7 @@
         <v>1.9147172829514947E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>201903</v>
       </c>
@@ -6539,7 +6632,7 @@
         <v>2.9160959773931738E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>201904</v>
       </c>
@@ -6560,7 +6653,7 @@
         <v>-8.7243836830717791E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>201905</v>
       </c>
@@ -6581,7 +6674,7 @@
         <v>4.0122714110429447E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>201906</v>
       </c>
@@ -6602,7 +6695,7 @@
         <v>-5.6623663230525034E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>201907</v>
       </c>
@@ -6623,7 +6716,7 @@
         <v>-5.8963116128704751E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>201908</v>
       </c>
@@ -6644,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>201909</v>
       </c>
@@ -6665,7 +6758,7 @@
         <v>2.6222879078826811E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>201910</v>
       </c>
@@ -6686,7 +6779,7 @@
         <v>8.7223292383291628E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>201911</v>
       </c>
@@ -6707,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>201912</v>
       </c>
@@ -6728,7 +6821,7 @@
         <v>3.6512048320897827E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>202001</v>
       </c>
@@ -6749,7 +6842,7 @@
         <v>-6.8595202290367974E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>202002</v>
       </c>
@@ -6770,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>202003</v>
       </c>
@@ -6791,7 +6884,7 @@
         <v>-0.36371893987053461</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>202004</v>
       </c>
@@ -6812,7 +6905,7 @@
         <v>0.11530983294095853</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>202005</v>
       </c>
@@ -6833,7 +6926,7 @@
         <v>0.11739617197482088</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>202006</v>
       </c>
@@ -6854,7 +6947,7 @@
         <v>7.1780827751352527E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>202007</v>
       </c>
@@ -6875,7 +6968,7 @@
         <v>5.1417564766200297E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>202008</v>
       </c>
@@ -6896,7 +6989,7 @@
         <v>-1.7816381309504026E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>202009</v>
       </c>
@@ -6917,7 +7010,7 @@
         <v>3.4956604738541674E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>202010</v>
       </c>
@@ -6938,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>202011</v>
       </c>
@@ -6959,7 +7052,7 @@
         <v>0.10491089704466372</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>202012</v>
       </c>
@@ -6980,7 +7073,7 @@
         <v>8.3033754626049339E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>202101</v>
       </c>
@@ -7001,7 +7094,7 @@
         <v>9.2985463416512149E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>202102</v>
       </c>
@@ -7022,7 +7115,7 @@
         <v>4.1666655605816283E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>202103</v>
       </c>
@@ -7043,7 +7136,7 @@
         <v>-3.4678674821609912E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>202104</v>
       </c>
@@ -7064,7 +7157,7 @@
         <v>6.4629844351301147E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>202105</v>
       </c>
@@ -7085,40 +7178,1098 @@
         <v>3.0784522258752611E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B175" s="4">
-        <f>Prices!B176/Prices!B175-1</f>
-        <v>1.2760907504363095E-2</v>
-      </c>
-      <c r="C175" s="4">
-        <f>Prices!C176/Prices!C175-1</f>
-        <v>7.9950983962673305E-3</v>
-      </c>
-      <c r="D175" s="4">
-        <f>Prices!D176/Prices!D175-1</f>
-        <v>8.0697224311496729E-3</v>
-      </c>
-      <c r="E175" s="4">
-        <f>Prices!E176/Prices!E175-1</f>
-        <v>-1.3534328900331571E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B176" s="4">
-        <f>Prices!B177/Prices!B176-1</f>
-        <v>-1</v>
-      </c>
-      <c r="C176" s="4">
-        <f>Prices!C177/Prices!C176-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D176" s="4">
-        <f>Prices!D177/Prices!D176-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E176" s="4">
-        <f>Prices!E177/Prices!E176-1</f>
-        <v>-1</v>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="4" t="e">
+        <f>Prices!#REF!/Prices!B175-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C175" s="4" t="e">
+        <f>Prices!#REF!/Prices!C175-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D175" s="4" t="e">
+        <f>Prices!#REF!/Prices!D175-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E175" s="4" t="e">
+        <f>Prices!#REF!/Prices!E175-1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="4" t="e">
+        <f>Prices!B176/Prices!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C176" s="4" t="e">
+        <f>Prices!C176/Prices!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D176" s="4" t="e">
+        <f>Prices!D176/Prices!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E176" s="4" t="e">
+        <f>Prices!E176/Prices!#REF!-1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266CC7C-FF3B-1E4B-89BA-035140D579BD}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.115282657988452E-20</v>
+      </c>
+      <c r="C3">
+        <v>2.1331961869873559E-4</v>
+      </c>
+      <c r="D3">
+        <v>9.6182092234849538E-4</v>
+      </c>
+      <c r="E3">
+        <v>3.8128275989117292E-3</v>
+      </c>
+      <c r="F3">
+        <v>3.1452923571433562E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.1585369670460855</v>
+      </c>
+      <c r="H3">
+        <v>3.395698176970365E-3</v>
+      </c>
+      <c r="I3">
+        <v>1.093051864472065E-2</v>
+      </c>
+      <c r="J3">
+        <v>7.9488178253076767E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.1054737809813539E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.6770586408252441E-2</v>
+      </c>
+      <c r="M3">
+        <v>4.8282030076263173E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.494738351548436E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.2460490947100901E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.32657992486329462</v>
+      </c>
+      <c r="Q3">
+        <v>6.0959584189604538E-2</v>
+      </c>
+      <c r="R3">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.1063208022396727</v>
+      </c>
+      <c r="T3">
+        <v>9.3679197760327265E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f>SUM(B3:F3,O3,S3:T3)</f>
+        <v>0.22059375144420318</v>
+      </c>
+      <c r="W3" s="4">
+        <f>SUM(G3:K3,P3:Q3)</f>
+        <v>0.57940624855579692</v>
+      </c>
+      <c r="X3" s="4">
+        <f>L3+R3</f>
+        <v>0.12677058640825242</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>M3+N3</f>
+        <v>7.3229413591747533E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>8.6663477625723104E-5</v>
+      </c>
+      <c r="C4">
+        <v>2.7378386001502208E-4</v>
+      </c>
+      <c r="D4">
+        <v>1.1171920331494781E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.9201774557764916E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.035223579856854E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.15721630943153839</v>
+      </c>
+      <c r="H4">
+        <v>3.4892559415536251E-3</v>
+      </c>
+      <c r="I4">
+        <v>1.1167895567188019E-2</v>
+      </c>
+      <c r="J4">
+        <v>8.2964474303377431E-3</v>
+      </c>
+      <c r="K4">
+        <v>1.139705122295866E-2</v>
+      </c>
+      <c r="L4">
+        <v>2.732367807156794E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.775091391484286E-2</v>
+      </c>
+      <c r="N4">
+        <v>2.4925408013589171E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.210360260951158E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.32548093539501233</v>
+      </c>
+      <c r="Q4">
+        <v>6.2415461995476089E-2</v>
+      </c>
+      <c r="R4">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.1070695899734052</v>
+      </c>
+      <c r="T4">
+        <v>9.2930410026594773E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V13" si="0">SUM(B4:F4,O4,S4:T4)</f>
+        <v>0.22053664301593512</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W13" si="1">SUM(G4:K4,P4:Q4)</f>
+        <v>0.57946335698406493</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X13" si="2">L4+R4</f>
+        <v>0.12732367807156791</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" ref="Y4:Y13" si="3">M4+N4</f>
+        <v>7.2676321928432028E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5.4057625213305919E-4</v>
+      </c>
+      <c r="C5">
+        <v>4.9243524737612018E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.0933978867590729E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.0217159908499077E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.9781713761659009E-3</v>
+      </c>
+      <c r="G5">
+        <v>0.1585873705226454</v>
+      </c>
+      <c r="H5">
+        <v>3.044359080323938E-3</v>
+      </c>
+      <c r="I5">
+        <v>1.0962841235115079E-2</v>
+      </c>
+      <c r="J5">
+        <v>7.9994343763299443E-3</v>
+      </c>
+      <c r="K5">
+        <v>1.027969803230162E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.8050691423450898E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.6734946803229947E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.5214361773319129E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.309872408170944E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.32593735347182051</v>
+      </c>
+      <c r="Q5">
+        <v>6.0963922446470108E-2</v>
+      </c>
+      <c r="R5">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.1062204161312723</v>
+      </c>
+      <c r="T5">
+        <v>9.3779583868727756E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222502083499357</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57777497916500653</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12805069142345088</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1949308576549076E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>7.8805888599766522E-4</v>
+      </c>
+      <c r="C6">
+        <v>6.1056354796844672E-4</v>
+      </c>
+      <c r="D6">
+        <v>8.341579902944959E-4</v>
+      </c>
+      <c r="E6">
+        <v>4.3030790060033198E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.0926201370276261E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.1573141913800592</v>
+      </c>
+      <c r="H6">
+        <v>3.0872005634173479E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.067653186952814E-2</v>
+      </c>
+      <c r="J6">
+        <v>8.4129157575426883E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.08806808621611E-2</v>
+      </c>
+      <c r="L6">
+        <v>2.8996800186081369E-2</v>
+      </c>
+      <c r="M6">
+        <v>4.6304930274448063E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.469826953947056E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.3134012166393779E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.32571306577356518</v>
+      </c>
+      <c r="Q6">
+        <v>6.1152922060040971E-2</v>
+      </c>
+      <c r="R6">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.107635999632558</v>
+      </c>
+      <c r="T6">
+        <v>9.2364000367442009E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22276249173368534</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57723750826631459</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12899680018608134</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1003199813918616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7.2103619012685489E-4</v>
+      </c>
+      <c r="C7">
+        <v>8.3125014622657974E-4</v>
+      </c>
+      <c r="D7">
+        <v>7.2498342264569709E-4</v>
+      </c>
+      <c r="E7">
+        <v>3.976887718597083E-3</v>
+      </c>
+      <c r="F7">
+        <v>2.639056297319762E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.16522888772146629</v>
+      </c>
+      <c r="H7">
+        <v>2.3581809510317439E-3</v>
+      </c>
+      <c r="I7">
+        <v>8.4477202375555695E-3</v>
+      </c>
+      <c r="J7">
+        <v>6.8540416643255849E-3</v>
+      </c>
+      <c r="K7">
+        <v>8.2179556507047911E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.9050017414230619E-2</v>
+      </c>
+      <c r="M7">
+        <v>4.6783110353461881E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.4166872232307481E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.4834301220015309E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.3235960332639724</v>
+      </c>
+      <c r="Q7">
+        <v>6.1569665516012312E-2</v>
+      </c>
+      <c r="R7">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.1034188412784028</v>
+      </c>
+      <c r="T7">
+        <v>9.6581158721597171E-2</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22372751499493126</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57627248500506867</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12905001741423061</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0949982585769358E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6.3502850458582413E-4</v>
+      </c>
+      <c r="C8">
+        <v>9.8757279308789889E-4</v>
+      </c>
+      <c r="D8">
+        <v>1.0052211348544979E-3</v>
+      </c>
+      <c r="E8">
+        <v>4.3760179284115562E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.158413252458748E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.16137602497238701</v>
+      </c>
+      <c r="H8">
+        <v>2.0989456018114441E-3</v>
+      </c>
+      <c r="I8">
+        <v>8.5378544885466087E-3</v>
+      </c>
+      <c r="J8">
+        <v>9.0668500636419177E-3</v>
+      </c>
+      <c r="K8">
+        <v>8.7580712602145141E-3</v>
+      </c>
+      <c r="L8">
+        <v>2.887162228659056E-2</v>
+      </c>
+      <c r="M8">
+        <v>4.5433061314915688E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.569531639849373E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.007057803604818E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.31424926901701922</v>
+      </c>
+      <c r="Q8">
+        <v>6.5680152946932677E-2</v>
+      </c>
+      <c r="R8">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.1024893505867799</v>
+      </c>
+      <c r="T8">
+        <v>9.7510649413220116E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23023283164944675</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56976716835055341</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12887162228659055</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1128377713409421E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4.5110437370351618E-4</v>
+      </c>
+      <c r="C9">
+        <v>1.44205917921711E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.206988351063718E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.0165588886511032E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.5183661854618692E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.1478541862925529</v>
+      </c>
+      <c r="H9">
+        <v>2.273474049197114E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.236391811595833E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.2733065666562409E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.2140278897631959E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.725901768028294E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.779379988116377E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.4947182438553279E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.3777097072450858E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.30305437469657981</v>
+      </c>
+      <c r="Q9">
+        <v>7.3168528230969365E-2</v>
+      </c>
+      <c r="R9">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.10543248103342601</v>
+      </c>
+      <c r="T9">
+        <v>9.4567518966574046E-2</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23641217405054821</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56358782594945189</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13725901768028292</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2740982319717045E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5.8921202264411183E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.107262860140938E-3</v>
+      </c>
+      <c r="D10">
+        <v>8.5767481681024564E-4</v>
+      </c>
+      <c r="E10">
+        <v>4.5078254219984293E-3</v>
+      </c>
+      <c r="F10">
+        <v>4.4417535433099202E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.14889133841830399</v>
+      </c>
+      <c r="H10">
+        <v>2.6686009200480899E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.299445983592906E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.243677382717203E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.150509833364315E-2</v>
+      </c>
+      <c r="L10">
+        <v>4.5741214698170288E-2</v>
+      </c>
+      <c r="M10">
+        <v>3.2514346780031518E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.1744438521798169E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.622585487532933E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.29658255334032307</v>
+      </c>
+      <c r="Q10">
+        <v>7.7191591784347591E-2</v>
+      </c>
+      <c r="R10">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S10">
+        <v>0.11163833791497869</v>
+      </c>
+      <c r="T10">
+        <v>8.8361662085021303E-2</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23772958354023296</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56227041645976694</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14574121469817025</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.425878530182969E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3.5275305932970361E-4</v>
+      </c>
+      <c r="C11">
+        <v>7.5500588736777648E-4</v>
+      </c>
+      <c r="D11">
+        <v>8.647423046546915E-5</v>
+      </c>
+      <c r="E11">
+        <v>3.4248096904231119E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.8693407233661072E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.16220466893937599</v>
+      </c>
+      <c r="H11">
+        <v>2.6711966137759001E-3</v>
+      </c>
+      <c r="I11">
+        <v>1.094183000414263E-2</v>
+      </c>
+      <c r="J11">
+        <v>8.741741858409242E-3</v>
+      </c>
+      <c r="K11">
+        <v>7.9521789933440466E-3</v>
+      </c>
+      <c r="L11">
+        <v>4.2246589335989959E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.9760356328009228E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.7993054336000791E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.5190442597759571E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.30857032381233312</v>
+      </c>
+      <c r="Q11">
+        <v>6.6239233589907395E-2</v>
+      </c>
+      <c r="R11">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.1062341254767375</v>
+      </c>
+      <c r="T11">
+        <v>9.3765874523262516E-2</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23267882618871175</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56732117381128833</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14224658933598994</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7753410664010019E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4.368535457895195E-4</v>
+      </c>
+      <c r="C12">
+        <v>1.0957821641317141E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.432346616008383E-4</v>
+      </c>
+      <c r="E12">
+        <v>3.8293558391338952E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.8490950048661381E-3</v>
+      </c>
+      <c r="G12">
+        <v>0.16164649302749071</v>
+      </c>
+      <c r="H12">
+        <v>2.3327181707424511E-3</v>
+      </c>
+      <c r="I12">
+        <v>1.080208724627137E-2</v>
+      </c>
+      <c r="J12">
+        <v>8.3927016368642669E-3</v>
+      </c>
+      <c r="K12">
+        <v>8.471678703109187E-3</v>
+      </c>
+      <c r="L12">
+        <v>4.3875503560441453E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.8238798312952467E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.7885698126606061E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.7764878732080351E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.29894499352537562</v>
+      </c>
+      <c r="Q12">
+        <v>7.3290127742544106E-2</v>
+      </c>
+      <c r="R12">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S12">
+        <v>0.1043161038753361</v>
+      </c>
+      <c r="T12">
+        <v>9.5683896124663936E-2</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2361191999476025</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56388080005239771</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14387550356044143</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6124496439558524E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5.1223198454278338E-4</v>
+      </c>
+      <c r="C13">
+        <v>1.1876656851004879E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.174011713331163E-4</v>
+      </c>
+      <c r="E13">
+        <v>3.6713122913203848E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.7125667587447012E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.16308315016544239</v>
+      </c>
+      <c r="H13">
+        <v>2.0785852562349382E-3</v>
+      </c>
+      <c r="I13">
+        <v>1.057799745255319E-2</v>
+      </c>
+      <c r="J13">
+        <v>7.7598671706917621E-3</v>
+      </c>
+      <c r="K13">
+        <v>8.1992220640362389E-3</v>
+      </c>
+      <c r="L13">
+        <v>4.463923935367832E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.7522055717878373E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.7838704928443291E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.693617613066589E-2</v>
+      </c>
+      <c r="P13">
+        <v>0.29764263904574401</v>
+      </c>
+      <c r="Q13">
+        <v>7.5421184823590073E-2</v>
+      </c>
+      <c r="R13">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.1049256651132749</v>
+      </c>
+      <c r="T13">
+        <v>9.507433488672512E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2352373540217074</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56476264597829262</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14463923935367828</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5360760646321665E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6">
+        <f>AVERAGE(V3:V13)</f>
+        <v>0.22893230831109068</v>
+      </c>
+      <c r="C18" s="7">
+        <f>ROUND(B18,2)</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6">
+        <f>AVERAGE(W3:W13)</f>
+        <v>0.57106769168890947</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C21" si="4">ROUND(B19,2)</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6">
+        <f>AVERAGE(X3:X13)</f>
+        <v>0.13480226912897605</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6">
+        <f>AVERAGE(Y3:Y13)</f>
+        <v>6.5197730871023887E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
